--- a/DoiFApp/Resources/reportsimple.xlsx
+++ b/DoiFApp/Resources/reportsimple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\OneDrive\Documents\.temp\...kl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Source\Repos\jujaken\DoiFApp\DoiFApp\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CB0C57-10BA-4CAE-804B-80C49AC2102C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B2B0A4-9776-43DA-BC7F-EEBC20E8761D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Расписание" sheetId="6" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="16" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Дисциплина</t>
   </si>
@@ -33,48 +33,6 @@
     <t>л.</t>
   </si>
   <si>
-    <t>903 ОТОРиРПвСКИ,901 ТЗИвПС,902 КЭ,902 ИАОПД</t>
-  </si>
-  <si>
-    <t>Дворянкин О.А.</t>
-  </si>
-  <si>
-    <t>Овчинский А.С.</t>
-  </si>
-  <si>
-    <t>991тзи,992иао</t>
-  </si>
-  <si>
-    <t>Лустин В.И.</t>
-  </si>
-  <si>
-    <t>Галиев Д.В.</t>
-  </si>
-  <si>
-    <t>901 ТЗИвПС,902 КЭ,902 ИАОПД,903 ОТОРиРПвСКИ</t>
-  </si>
-  <si>
-    <t>Елин В.М.</t>
-  </si>
-  <si>
-    <t>902 ИАОПД</t>
-  </si>
-  <si>
-    <t>902 КЭ</t>
-  </si>
-  <si>
-    <t>п/п.</t>
-  </si>
-  <si>
-    <t>Каримов А.К.</t>
-  </si>
-  <si>
-    <t>Пименова О.В.</t>
-  </si>
-  <si>
-    <t>901 ТЗИвПС,902 КЭ,902 ИАОПД</t>
-  </si>
-  <si>
     <t>Названия строк</t>
   </si>
   <si>
@@ -129,13 +87,28 @@
     <t>Специальные информационные технологии</t>
   </si>
   <si>
-    <t>Судебная компьютерная экспертиза</t>
-  </si>
-  <si>
-    <t>Технологии и методы программирования</t>
-  </si>
-  <si>
-    <t>Информационные технологии в аналитической разведке</t>
+    <t>Иванов И.И.</t>
+  </si>
+  <si>
+    <t>Иванов И.И.1</t>
+  </si>
+  <si>
+    <t>Иванов И.И.2</t>
+  </si>
+  <si>
+    <t>Иванов И.И.0</t>
+  </si>
+  <si>
+    <t>Иванов И.И.3</t>
+  </si>
+  <si>
+    <t>Иванов И.И.4</t>
+  </si>
+  <si>
+    <t>Иванов И.И.5</t>
+  </si>
+  <si>
+    <t>Иванов И.И.6</t>
   </si>
 </sst>
 </file>
@@ -175,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -183,6 +156,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -201,7 +183,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Владислав Кравченко" refreshedDate="45374.55040428241" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{FDC2CA36-347E-4BDD-B393-C79DA35B057C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Владислав Кравченко" refreshedDate="45597.671395370373" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{FDC2CA36-347E-4BDD-B393-C79DA35B057C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="Расписание"/>
   </cacheSource>
@@ -227,10 +209,10 @@
         <s v="Сети и системы передачи информации"/>
         <s v="Информационно-аналитическое обеспечение правоохранительной деятельности"/>
         <s v="Специальные информационные технологии"/>
-        <s v="Судебная компьютерная экспертиза"/>
-        <s v="Технологии и методы программирования"/>
-        <s v="Информационные технологии в аналитической разведке"/>
         <m/>
+        <s v="Судебная компьютерная экспертиза" u="1"/>
+        <s v="Технологии и методы программирования" u="1"/>
+        <s v="Информационные технологии в аналитической разведке" u="1"/>
         <s v="Специальные информационные технологии в правоохранительной деятельности" u="1"/>
         <s v="Использование специальных знаний при расследовании преступлений в сфере компьютерной информации" u="1"/>
         <s v="Информационно-психологическое обеспечение правоохранительной деятельности" u="1"/>
@@ -256,8 +238,8 @@
     <cacheField name="Вид занятия" numFmtId="0">
       <sharedItems containsBlank="1" count="11">
         <s v="л."/>
-        <s v="п/п."/>
         <m/>
+        <s v="п/п." u="1"/>
         <s v="с." u="1"/>
         <s v="п." u="1"/>
         <s v="л/р." u="1"/>
@@ -269,77 +251,35 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Группы" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="913" maxValue="1014" count="58">
-        <s v="903 ОТОРиРПвСКИ,901 ТЗИвПС,902 КЭ,902 ИАОПД"/>
-        <n v="922.92100000000005"/>
-        <s v="991тзи,992иао"/>
-        <s v="901 ТЗИвПС,902 КЭ,902 ИАОПД,903 ОТОРиРПвСКИ"/>
-        <n v="913"/>
-        <s v="902 ИАОПД"/>
-        <s v="902 КЭ"/>
-        <n v="1014"/>
-        <n v="923"/>
-        <s v="901 ТЗИвПС,902 КЭ,902 ИАОПД"/>
-        <n v="921.92200000000003"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="100" maxValue="1014" count="8">
+        <n v="100"/>
+        <n v="111"/>
         <m/>
-        <s v="922,921" u="1"/>
-        <s v="913" u="1"/>
-        <s v="1014" u="1"/>
-        <s v="923" u="1"/>
-        <s v="921,922" u="1"/>
-        <s v="903 ОТОРиРПвСКИ" u="1"/>
-        <s v="901 ТЗИвПС,902 КЭ" u="1"/>
-        <s v="922" u="1"/>
-        <s v="921" u="1"/>
-        <s v="1022" u="1"/>
-        <s v="1004" u="1"/>
-        <s v="304it" u="1"/>
-        <s v="911 ТЗИ,911 КЭ,912 ОТОР,912 ИАО" u="1"/>
-        <s v="Поток 2 (933)" u="1"/>
-        <s v="991тзи" u="1"/>
-        <s v="Поток 1 (931,932)" u="1"/>
-        <s v="911 ТЗИ,911 КЭ" u="1"/>
-        <s v="912 ОТОР" u="1"/>
-        <s v="901 ТЗИвПС" u="1"/>
-        <s v="933" u="1"/>
-        <s v="1034" u="1"/>
-        <s v="931" u="1"/>
-        <s v="992иао" u="1"/>
-        <s v="150.экстремисты16.01" u="1"/>
-        <s v="932" u="1"/>
-        <s v="912 ИАО,912 ОТОР" u="1"/>
-        <s v="Astra (админ) 22.01" u="1"/>
-        <s v="911 КЭ,911 ТЗИ" u="1"/>
-        <s v="902 КЭ,902 ИАОПД" u="1"/>
-        <s v="902 ИАОПД,902 КЭ" u="1"/>
-        <s v="912 ИАО,911 ТЗИ,911 КЭ,912 ОТОР" u="1"/>
-        <s v="15.1.24/30.01.24" u="1"/>
-        <s v="15.16.01 Миг.учет" u="1"/>
-        <s v="992иао,991тзи" u="1"/>
-        <s v="13205 (ОЗИП),13206 (ОЗИП)" u="1"/>
-        <s v="13213 (ОЗИП),13212 (ОЗИП),13207 (ОЗИП)" u="1"/>
-        <s v="912 ИАО,911 КЭ,912 ОТОР,911 ТЗИ" u="1"/>
-        <s v="314,315,313,311/2" u="1"/>
-        <s v="313" u="1"/>
-        <s v="311/2" u="1"/>
-        <s v="315" u="1"/>
-        <s v="314" u="1"/>
-        <s v="992отор" u="1"/>
-        <s v="311/2,315,313,314" u="1"/>
-        <s v="991кэ" u="1"/>
-        <s v="912 ОТОР,912 ИАО" u="1"/>
+        <n v="922.92100000000005" u="1"/>
+        <n v="913" u="1"/>
+        <n v="1014" u="1"/>
+        <n v="923" u="1"/>
+        <n v="921.92200000000003" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Преподаватель" numFmtId="0">
-      <sharedItems containsBlank="1" count="21">
-        <s v="Дворянкин О.А."/>
-        <s v="Овчинский А.С."/>
-        <s v="Лустин В.И."/>
-        <s v="Галиев Д.В."/>
-        <s v="Елин В.М."/>
-        <s v="Каримов А.К."/>
-        <s v="Пименова О.В."/>
+      <sharedItems containsBlank="1" count="29">
+        <s v="Иванов И.И."/>
+        <s v="Иванов И.И.0"/>
+        <s v="Иванов И.И.1"/>
+        <s v="Иванов И.И.2"/>
+        <s v="Иванов И.И.3"/>
+        <s v="Иванов И.И.4"/>
+        <s v="Иванов И.И.5"/>
+        <s v="Иванов И.И.6"/>
         <m/>
+        <s v="Дворянкин О.А." u="1"/>
+        <s v="Овчинский А.С." u="1"/>
+        <s v="Лустин В.И." u="1"/>
+        <s v="Галиев Д.В." u="1"/>
+        <s v="Елин В.М." u="1"/>
+        <s v="Каримов А.К." u="1"/>
+        <s v="Пименова О.В." u="1"/>
         <s v="Гончар В.В." u="1"/>
         <s v="Полянская Е.П." u="1"/>
         <s v="Клочкова Е.Н." u="1"/>
@@ -368,7 +308,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -389,7 +329,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="2"/>
   </r>
@@ -405,96 +345,48 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
     <n v="2213"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="4"/>
-    <x v="4"/>
+    <x v="1"/>
+    <x v="5"/>
     <n v="2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
     <n v="4"/>
   </r>
   <r>
     <x v="0"/>
     <x v="6"/>
     <x v="0"/>
-    <x v="4"/>
-    <x v="4"/>
+    <x v="1"/>
+    <x v="7"/>
     <n v="24"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="3"/>
-    <n v="24"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
     <x v="1"/>
     <x v="7"/>
-    <x v="5"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="8"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="6"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="5"/>
-    <n v="24"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="6"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="42"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="7"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D36C8723-79A5-4857-9E85-08F4621DABEC}" name="Сводная таблица2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D36C8723-79A5-4857-9E85-08F4621DABEC}" name="Сводная таблица2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="9">
@@ -519,7 +411,7 @@
         <item x="5"/>
         <item m="1" x="13"/>
         <item m="1" x="26"/>
-        <item x="9"/>
+        <item m="1" x="10"/>
         <item m="1" x="12"/>
         <item x="0"/>
         <item m="1" x="29"/>
@@ -535,13 +427,13 @@
         <item x="6"/>
         <item m="1" x="11"/>
         <item m="1" x="14"/>
-        <item x="7"/>
+        <item m="1" x="8"/>
         <item x="1"/>
-        <item x="8"/>
+        <item m="1" x="9"/>
         <item m="1" x="18"/>
         <item m="1" x="30"/>
         <item m="1" x="15"/>
-        <item x="10"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -553,100 +445,58 @@
         <item x="0"/>
         <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item x="1"/>
+        <item m="1" x="2"/>
         <item m="1" x="3"/>
         <item m="1" x="6"/>
         <item m="1" x="9"/>
-        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="59">
-        <item m="1" x="22"/>
-        <item m="1" x="14"/>
-        <item m="1" x="21"/>
-        <item m="1" x="32"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="35"/>
-        <item m="1" x="23"/>
-        <item m="1" x="51"/>
-        <item m="1" x="55"/>
-        <item m="1" x="50"/>
-        <item m="1" x="53"/>
-        <item m="1" x="49"/>
-        <item m="1" x="52"/>
-        <item m="1" x="30"/>
-        <item m="1" x="18"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item m="1" x="41"/>
-        <item x="6"/>
-        <item m="1" x="40"/>
-        <item m="1" x="17"/>
+      <items count="9">
+        <item x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
         <item x="0"/>
-        <item m="1" x="39"/>
-        <item m="1" x="28"/>
-        <item m="1" x="24"/>
-        <item m="1" x="48"/>
-        <item m="1" x="42"/>
-        <item m="1" x="37"/>
-        <item m="1" x="29"/>
-        <item m="1" x="57"/>
-        <item m="1" x="13"/>
-        <item m="1" x="20"/>
-        <item m="1" x="16"/>
-        <item m="1" x="19"/>
-        <item m="1" x="12"/>
-        <item m="1" x="15"/>
-        <item m="1" x="33"/>
-        <item m="1" x="36"/>
-        <item m="1" x="31"/>
-        <item m="1" x="56"/>
-        <item m="1" x="26"/>
-        <item x="2"/>
-        <item m="1" x="34"/>
-        <item m="1" x="45"/>
-        <item m="1" x="54"/>
-        <item m="1" x="38"/>
-        <item m="1" x="27"/>
-        <item m="1" x="25"/>
-        <item x="11"/>
         <item x="1"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item sd="0" m="1" x="18"/>
-        <item sd="0" m="1" x="11"/>
+      <items count="30">
+        <item sd="0" m="1" x="26"/>
+        <item sd="0" m="1" x="19"/>
+        <item sd="0" m="1" x="20"/>
         <item sd="0" m="1" x="12"/>
-        <item sd="0" x="3"/>
-        <item sd="0" m="1" x="8"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" m="1" x="10"/>
-        <item sd="0" m="1" x="14"/>
-        <item sd="0" x="2"/>
-        <item sd="0" m="1" x="19"/>
-        <item sd="0" m="1" x="15"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="6"/>
         <item sd="0" m="1" x="16"/>
         <item sd="0" m="1" x="9"/>
-        <item sd="0" m="1" x="20"/>
+        <item sd="0" m="1" x="13"/>
+        <item sd="0" m="1" x="14"/>
+        <item sd="0" m="1" x="18"/>
+        <item sd="0" m="1" x="22"/>
+        <item sd="0" m="1" x="11"/>
+        <item sd="0" m="1" x="27"/>
+        <item sd="0" m="1" x="23"/>
+        <item sd="0" m="1" x="10"/>
+        <item sd="0" m="1" x="15"/>
+        <item sd="0" m="1" x="24"/>
         <item sd="0" m="1" x="17"/>
-        <item sd="0" m="1" x="13"/>
-        <item h="1" sd="0" x="7"/>
+        <item sd="0" m="1" x="28"/>
+        <item sd="0" m="1" x="25"/>
+        <item sd="0" m="1" x="21"/>
+        <item sd="0" x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -658,27 +508,102 @@
     <field x="1"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="33">
     <i>
-      <x v="3"/>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
     </i>
     <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="25"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="15"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="19"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="18"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
       <x v="5"/>
     </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="21"/>
+    </i>
+    <i r="3">
       <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
     </i>
     <i t="grand">
       <x/>
@@ -687,12 +612,9 @@
   <colFields count="1">
     <field x="2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -714,8 +636,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05BA9D0D-61B4-4F61-873C-404FF3FF410D}" name="Сводная таблица3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:D13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05BA9D0D-61B4-4F61-873C-404FF3FF410D}" name="Сводная таблица3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:C22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -728,7 +650,7 @@
         <item x="5"/>
         <item m="1" x="13"/>
         <item m="1" x="26"/>
-        <item x="9"/>
+        <item m="1" x="10"/>
         <item m="1" x="12"/>
         <item x="0"/>
         <item m="1" x="29"/>
@@ -744,13 +666,13 @@
         <item x="6"/>
         <item m="1" x="11"/>
         <item m="1" x="14"/>
-        <item x="7"/>
+        <item m="1" x="8"/>
         <item x="1"/>
-        <item x="8"/>
+        <item m="1" x="9"/>
         <item m="1" x="18"/>
         <item m="1" x="30"/>
         <item m="1" x="15"/>
-        <item x="10"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -762,129 +684,115 @@
         <item x="0"/>
         <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item x="1"/>
+        <item m="1" x="2"/>
         <item m="1" x="3"/>
         <item m="1" x="6"/>
         <item m="1" x="9"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="59">
-        <item m="1" x="22"/>
-        <item m="1" x="14"/>
-        <item m="1" x="21"/>
-        <item m="1" x="32"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="35"/>
-        <item m="1" x="23"/>
-        <item m="1" x="51"/>
-        <item m="1" x="55"/>
-        <item m="1" x="50"/>
-        <item m="1" x="53"/>
-        <item m="1" x="49"/>
-        <item m="1" x="52"/>
-        <item m="1" x="30"/>
-        <item m="1" x="18"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item m="1" x="41"/>
-        <item x="6"/>
-        <item m="1" x="40"/>
-        <item m="1" x="17"/>
-        <item x="0"/>
-        <item m="1" x="39"/>
-        <item m="1" x="28"/>
-        <item m="1" x="24"/>
-        <item m="1" x="48"/>
-        <item m="1" x="42"/>
-        <item m="1" x="37"/>
-        <item m="1" x="29"/>
-        <item m="1" x="57"/>
-        <item m="1" x="13"/>
-        <item m="1" x="20"/>
-        <item m="1" x="16"/>
-        <item m="1" x="19"/>
-        <item m="1" x="12"/>
-        <item m="1" x="15"/>
-        <item m="1" x="33"/>
-        <item m="1" x="36"/>
-        <item m="1" x="31"/>
-        <item m="1" x="56"/>
-        <item m="1" x="26"/>
-        <item x="2"/>
-        <item m="1" x="34"/>
-        <item m="1" x="45"/>
-        <item m="1" x="54"/>
-        <item m="1" x="38"/>
-        <item m="1" x="27"/>
-        <item m="1" x="25"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="22">
+      <items count="9">
+        <item x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="30">
+        <item m="1" x="26"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="12"/>
+        <item m="1" x="16"/>
+        <item m="1" x="9"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
         <item m="1" x="18"/>
+        <item m="1" x="22"/>
         <item m="1" x="11"/>
-        <item m="1" x="12"/>
+        <item m="1" x="27"/>
+        <item m="1" x="23"/>
+        <item m="1" x="10"/>
+        <item m="1" x="15"/>
+        <item m="1" x="24"/>
+        <item m="1" x="17"/>
+        <item m="1" x="28"/>
+        <item m="1" x="25"/>
+        <item m="1" x="21"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item x="3"/>
-        <item m="1" x="8"/>
-        <item x="0"/>
         <item x="4"/>
         <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="14"/>
-        <item x="2"/>
-        <item m="1" x="19"/>
-        <item m="1" x="15"/>
-        <item x="1"/>
         <item x="6"/>
-        <item m="1" x="16"/>
-        <item m="1" x="9"/>
-        <item m="1" x="20"/>
-        <item m="1" x="17"/>
-        <item m="1" x="13"/>
-        <item h="1" x="7"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="4"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="17">
     <i>
-      <x v="3"/>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
     </i>
     <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
       <x v="7"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -893,20 +801,16 @@
   <colFields count="1">
     <field x="2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x v="3"/>
     </i>
-    <i>
-      <x v="6"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="1">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Сумма по полю Часы" fld="5" baseField="0" baseItem="0"/>
@@ -1220,49 +1124,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4937149A-D85A-4776-A442-46A6EA88322A}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="D2">
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>2000</v>
@@ -1270,19 +1174,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>922.92100000000005</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1290,19 +1194,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
+      <c r="D4">
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1310,19 +1214,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>922.92100000000005</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1330,19 +1234,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
+      <c r="D6">
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>2213</v>
@@ -1350,19 +1254,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>913</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1370,19 +1274,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
+      <c r="D8">
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -1390,142 +1294,22 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>913</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>1014</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>923</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>1014</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>921.92200000000003</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1535,18 +1319,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAA94DE-CC70-442A-AD2B-480E1A0FB696}">
-  <dimension ref="A3:M25"/>
+  <dimension ref="A3:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
@@ -1557,128 +1340,388 @@
     <col min="12" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>100</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>111</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>111</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>111</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2213</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2213</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2213</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>111</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2213</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>111</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B29" s="4">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>111</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="4">
+        <v>24</v>
+      </c>
+      <c r="C35" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>111</v>
+      </c>
+      <c r="B36" s="4">
+        <v>24</v>
+      </c>
+      <c r="C36" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>4217</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
-        <v>4217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4321</v>
-      </c>
-      <c r="C12" s="4">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4347</v>
-      </c>
-    </row>
-    <row r="25" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M25" s="3"/>
+      <c r="B37" s="4">
+        <v>4249</v>
+      </c>
+      <c r="C37" s="4">
+        <v>4249</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1688,18 +1731,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7C3956-06B0-47DC-AE7E-1A0376673F04}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
@@ -1710,140 +1752,218 @@
     <col min="12" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>100</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>111</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>111</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>111</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2213</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>111</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2213</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>111</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>111</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>111</v>
+      </c>
+      <c r="B21" s="4">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
-        <v>4217</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
-        <v>4217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4">
-        <v>4321</v>
-      </c>
-      <c r="C13" s="4">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4347</v>
+      <c r="B22" s="4">
+        <v>4249</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4249</v>
       </c>
     </row>
   </sheetData>
